--- a/workflow/FuturePlanning/Municipal-MajorProjects/data/project-data.xlsx
+++ b/workflow/FuturePlanning/Municipal-MajorProjects/data/project-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19788" windowHeight="8292"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19788" windowHeight="8292" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Website</t>
   </si>
@@ -115,6 +115,48 @@
   </si>
   <si>
     <t>This Excel workbook is an initial inventory of major projects for the Future Planning / Municipal - Major Projects map.</t>
+  </si>
+  <si>
+    <t>Thornton Pipeline</t>
+  </si>
+  <si>
+    <t>https://thorntonwaterproject.com/</t>
+  </si>
+  <si>
+    <t>Agricultural transfer, transbasin diversion</t>
+  </si>
+  <si>
+    <t>Transfer Water Supply and Storage agricultural water to Thornton</t>
+  </si>
+  <si>
+    <t>City of Thornton</t>
+  </si>
+  <si>
+    <t>Chimney Hollow Reservoir</t>
+  </si>
+  <si>
+    <t>New storage to improve reliability of Windy Gap project</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>https://www.northernwater.org/chrp</t>
+  </si>
+  <si>
+    <t>Coordinates estimated from Northern Water online map</t>
+  </si>
+  <si>
+    <t>Coordinates estimated from Thorntom route online map</t>
+  </si>
+  <si>
+    <t>StoryMap</t>
+  </si>
+  <si>
+    <t>https://storymaps.arcgis.com/stories/5c6250273ba0494d9bb90c4c80df2887</t>
+  </si>
+  <si>
+    <t>https://fcgov.maps.arcgis.com/apps/MapJournal/index.html?appid=8be10606da3f4fd7a039825f74c667e4</t>
   </si>
 </sst>
 </file>
@@ -449,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -477,27 +519,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
     <col min="3" max="3" width="41.88671875" customWidth="1"/>
     <col min="4" max="4" width="27.88671875" customWidth="1"/>
     <col min="5" max="5" width="61.21875" customWidth="1"/>
-    <col min="6" max="6" width="90.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="6" max="7" width="38.5546875" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -517,103 +559,177 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-105.34974</v>
-      </c>
-      <c r="I2" s="2">
-        <v>40.881210000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>-105.23564500000001</v>
+      </c>
+      <c r="J2">
+        <v>40.358249000000001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-105.34974</v>
+      </c>
+      <c r="J3" s="2">
+        <v>40.881210000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I4" s="2">
         <v>-105.19338</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J4" s="2">
         <v>40.672339999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>-104.88775</v>
       </c>
-      <c r="I4">
+      <c r="J5">
         <v>40.975659999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>-105.091359</v>
+      </c>
+      <c r="J6">
+        <v>40.631236999999999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
